--- a/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
@@ -488,12 +488,12 @@
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,7 +803,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -835,7 +836,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -868,7 +869,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -901,7 +902,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -934,7 +935,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -967,7 +968,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1000,7 +1001,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -1053,7 +1054,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1086,7 +1087,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1119,7 +1120,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1152,7 +1153,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1185,7 +1186,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1218,7 +1219,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1251,7 +1252,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1304,7 +1305,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1337,7 +1338,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1370,7 +1371,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1403,7 +1404,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1436,7 +1437,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1469,7 +1470,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1502,7 +1503,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1555,7 +1556,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1588,7 +1589,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1621,7 +1622,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1654,7 +1655,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1687,7 +1688,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1720,7 +1721,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1753,7 +1754,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1806,7 +1807,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1839,7 +1840,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1872,7 +1873,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1905,7 +1906,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1938,7 +1939,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1971,7 +1972,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2004,7 +2005,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2057,7 +2058,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2090,7 +2091,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2123,7 +2124,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2156,7 +2157,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2189,7 +2190,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2222,7 +2223,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2255,7 +2256,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2308,7 +2309,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2341,7 +2342,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2374,7 +2375,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2407,7 +2408,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2440,7 +2441,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2473,7 +2474,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2506,7 +2507,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2559,7 +2560,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2592,7 +2593,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2625,7 +2626,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2658,7 +2659,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2691,7 +2692,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2724,7 +2725,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2757,7 +2758,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2810,7 +2811,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2843,7 +2844,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2876,7 +2877,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2909,7 +2910,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2942,7 +2943,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2975,7 +2976,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3008,7 +3009,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3061,7 +3062,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3094,7 +3095,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3127,7 +3128,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3160,7 +3161,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3193,7 +3194,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3226,7 +3227,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3259,7 +3260,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3312,7 +3313,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3345,7 +3346,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3378,7 +3379,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3411,7 +3412,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3444,7 +3445,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3477,7 +3478,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3510,7 +3511,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3563,7 +3564,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3596,7 +3597,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3629,7 +3630,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3662,7 +3663,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3695,7 +3696,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3728,7 +3729,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3761,7 +3762,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -3814,7 +3815,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3847,7 +3848,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3880,7 +3881,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3913,7 +3914,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3946,7 +3947,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3979,7 +3980,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4012,7 +4013,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4065,7 +4066,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4098,7 +4099,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4131,7 +4132,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4164,7 +4165,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4197,7 +4198,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4230,7 +4231,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4263,7 +4264,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -4316,7 +4317,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4349,7 +4350,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4382,7 +4383,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4415,7 +4416,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4448,7 +4449,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4481,7 +4482,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4514,7 +4515,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4567,7 +4568,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4600,7 +4601,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4633,7 +4634,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4666,7 +4667,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4699,7 +4700,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4732,7 +4733,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4765,7 +4766,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -4818,7 +4819,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4851,7 +4852,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4884,7 +4885,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4917,7 +4918,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4950,7 +4951,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4983,7 +4984,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5016,7 +5017,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -5069,7 +5070,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5102,7 +5103,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5135,7 +5136,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5168,7 +5169,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5201,7 +5202,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5234,7 +5235,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5267,7 +5268,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5320,7 +5321,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5353,7 +5354,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5386,7 +5387,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5419,7 +5420,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5452,7 +5453,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5485,7 +5486,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5518,7 +5519,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -5571,7 +5572,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5604,7 +5605,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5637,7 +5638,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5670,7 +5671,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5703,7 +5704,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5736,7 +5737,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5769,7 +5770,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5802,7 +5803,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -5835,7 +5836,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -5868,7 +5869,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -5901,7 +5902,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -5954,7 +5955,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -5987,7 +5988,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6020,7 +6021,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6053,7 +6054,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6086,7 +6087,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6119,7 +6120,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6152,7 +6153,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6185,7 +6186,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6218,7 +6219,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6251,7 +6252,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6284,7 +6285,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -6337,7 +6338,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6370,7 +6371,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6403,7 +6404,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6436,7 +6437,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6469,7 +6470,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6502,7 +6503,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6535,7 +6536,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6568,7 +6569,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6601,7 +6602,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6634,7 +6635,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6667,7 +6668,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -6720,7 +6721,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -6753,7 +6754,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -6786,7 +6787,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -6819,7 +6820,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -6852,7 +6853,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -6885,7 +6886,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -6918,7 +6919,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -6951,7 +6952,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -6984,7 +6985,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7017,7 +7018,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7050,7 +7051,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -7103,7 +7104,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7136,7 +7137,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7169,7 +7170,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7202,7 +7203,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7235,7 +7236,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7268,7 +7269,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7301,7 +7302,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7334,7 +7335,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7367,7 +7368,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7400,7 +7401,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7433,7 +7434,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -7486,7 +7487,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7519,7 +7520,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7552,7 +7553,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7585,7 +7586,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7618,7 +7619,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7651,7 +7652,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -7684,7 +7685,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -7717,7 +7718,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -7750,7 +7751,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -7783,7 +7784,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -7816,7 +7817,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C207" t="inlineStr">
@@ -7869,7 +7870,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -7902,7 +7903,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -7935,7 +7936,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -7968,7 +7969,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8001,7 +8002,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8034,7 +8035,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8067,7 +8068,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8100,7 +8101,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8133,7 +8134,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8166,7 +8167,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8199,7 +8200,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C218" t="inlineStr">
@@ -8252,7 +8253,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8285,7 +8286,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8318,7 +8319,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8351,7 +8352,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8384,7 +8385,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8417,7 +8418,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8450,7 +8451,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8483,7 +8484,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8516,7 +8517,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -8549,7 +8550,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -8582,7 +8583,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -8635,7 +8636,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -8668,7 +8669,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -8701,7 +8702,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -8734,7 +8735,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -8767,7 +8768,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -8800,7 +8801,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -8833,7 +8834,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -8866,7 +8867,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -8899,7 +8900,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -8932,7 +8933,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -8965,7 +8966,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -9018,7 +9019,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9051,7 +9052,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9084,7 +9085,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9117,7 +9118,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9150,7 +9151,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9183,7 +9184,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9216,7 +9217,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9249,7 +9250,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9282,7 +9283,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9315,7 +9316,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9348,7 +9349,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C251" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +456,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -552,7 +551,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +584,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,7 +617,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -651,7 +650,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -684,7 +683,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -717,7 +716,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -750,7 +749,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -803,7 +802,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -836,7 +835,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -869,7 +868,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -902,7 +901,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -935,7 +934,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -968,7 +967,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1001,7 +1000,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -1054,7 +1053,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1087,7 +1086,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1120,7 +1119,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1153,7 +1152,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1186,7 +1185,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1219,7 +1218,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1252,7 +1251,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1305,7 +1304,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1338,7 +1337,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1371,7 +1370,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1404,7 +1403,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1437,7 +1436,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1470,7 +1469,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1503,7 +1502,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1556,7 +1555,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1589,7 +1588,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1622,7 +1621,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1655,7 +1654,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1688,7 +1687,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1721,7 +1720,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1754,7 +1753,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1807,7 +1806,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1840,7 +1839,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1873,7 +1872,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1906,7 +1905,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1939,7 +1938,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1972,7 +1971,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2005,7 +2004,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2058,7 +2057,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2091,7 +2090,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2124,7 +2123,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2157,7 +2156,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2190,7 +2189,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2223,7 +2222,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2256,7 +2255,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2309,7 +2308,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2342,7 +2341,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2375,7 +2374,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2408,7 +2407,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2441,7 +2440,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2474,7 +2473,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2507,7 +2506,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2560,7 +2559,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2593,7 +2592,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2626,7 +2625,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2659,7 +2658,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2692,7 +2691,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2725,7 +2724,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2758,7 +2757,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2811,7 +2810,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2844,7 +2843,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2877,7 +2876,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2910,7 +2909,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2943,7 +2942,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2976,7 +2975,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3009,7 +3008,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3062,7 +3061,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3095,7 +3094,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3128,7 +3127,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3161,7 +3160,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3194,7 +3193,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3227,7 +3226,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3260,7 +3259,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3313,7 +3312,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3346,7 +3345,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3379,7 +3378,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3412,7 +3411,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3445,7 +3444,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3478,7 +3477,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3511,7 +3510,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3564,7 +3563,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3597,7 +3596,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3630,7 +3629,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3663,7 +3662,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3696,7 +3695,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3729,7 +3728,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
+      <c r="B91" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3762,7 +3761,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -3815,7 +3814,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3848,7 +3847,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3881,7 +3880,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3914,7 +3913,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3947,7 +3946,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3980,7 +3979,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4013,7 +4012,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4066,7 +4065,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4099,7 +4098,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
+      <c r="B101" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4132,7 +4131,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
+      <c r="B102" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4165,7 +4164,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4198,7 +4197,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4231,7 +4230,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
+      <c r="B105" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4264,7 +4263,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -4317,7 +4316,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4350,7 +4349,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="4" t="n">
+      <c r="B108" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4383,7 +4382,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="4" t="n">
+      <c r="B109" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4416,7 +4415,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="4" t="n">
+      <c r="B110" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4449,7 +4448,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="4" t="n">
+      <c r="B111" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4482,7 +4481,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="4" t="n">
+      <c r="B112" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4515,7 +4514,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="4" t="n">
+      <c r="B113" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4568,7 +4567,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="4" t="n">
+      <c r="B114" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4601,7 +4600,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="4" t="n">
+      <c r="B115" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4634,7 +4633,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="4" t="n">
+      <c r="B116" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4667,7 +4666,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B117" s="4" t="n">
+      <c r="B117" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4700,7 +4699,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B118" s="4" t="n">
+      <c r="B118" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4733,7 +4732,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B119" s="4" t="n">
+      <c r="B119" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4766,7 +4765,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B120" s="4" t="n">
+      <c r="B120" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -4819,7 +4818,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B121" s="4" t="n">
+      <c r="B121" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4852,7 +4851,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B122" s="4" t="n">
+      <c r="B122" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4885,7 +4884,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="4" t="n">
+      <c r="B123" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4918,7 +4917,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="4" t="n">
+      <c r="B124" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4951,7 +4950,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="4" t="n">
+      <c r="B125" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4984,7 +4983,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="4" t="n">
+      <c r="B126" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5017,7 +5016,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B127" s="4" t="n">
+      <c r="B127" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -5070,7 +5069,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B128" s="4" t="n">
+      <c r="B128" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5103,7 +5102,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B129" s="4" t="n">
+      <c r="B129" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5136,7 +5135,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B130" s="4" t="n">
+      <c r="B130" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5169,7 +5168,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B131" s="4" t="n">
+      <c r="B131" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5202,7 +5201,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B132" s="4" t="n">
+      <c r="B132" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5235,7 +5234,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B133" s="4" t="n">
+      <c r="B133" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5268,7 +5267,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B134" s="4" t="n">
+      <c r="B134" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5321,7 +5320,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B135" s="4" t="n">
+      <c r="B135" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5354,7 +5353,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B136" s="4" t="n">
+      <c r="B136" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5387,7 +5386,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="4" t="n">
+      <c r="B137" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5420,7 +5419,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="4" t="n">
+      <c r="B138" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5453,7 +5452,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="4" t="n">
+      <c r="B139" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5486,7 +5485,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="4" t="n">
+      <c r="B140" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5519,7 +5518,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="4" t="n">
+      <c r="B141" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -5572,7 +5571,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B142" s="4" t="n">
+      <c r="B142" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5605,7 +5604,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B143" s="4" t="n">
+      <c r="B143" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5638,7 +5637,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B144" s="4" t="n">
+      <c r="B144" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5671,7 +5670,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B145" s="4" t="n">
+      <c r="B145" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5704,7 +5703,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B146" s="4" t="n">
+      <c r="B146" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5737,7 +5736,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B147" s="4" t="n">
+      <c r="B147" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5770,7 +5769,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B148" s="4" t="n">
+      <c r="B148" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5803,7 +5802,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B149" s="4" t="n">
+      <c r="B149" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -5836,7 +5835,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B150" s="4" t="n">
+      <c r="B150" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -5869,7 +5868,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B151" s="4" t="n">
+      <c r="B151" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -5902,7 +5901,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B152" s="4" t="n">
+      <c r="B152" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -5955,7 +5954,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B153" s="4" t="n">
+      <c r="B153" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -5988,7 +5987,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B154" s="4" t="n">
+      <c r="B154" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6021,7 +6020,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B155" s="4" t="n">
+      <c r="B155" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6054,7 +6053,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B156" s="4" t="n">
+      <c r="B156" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6087,7 +6086,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B157" s="4" t="n">
+      <c r="B157" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6120,7 +6119,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B158" s="4" t="n">
+      <c r="B158" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6153,7 +6152,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B159" s="4" t="n">
+      <c r="B159" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6186,7 +6185,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B160" s="4" t="n">
+      <c r="B160" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6219,7 +6218,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B161" s="4" t="n">
+      <c r="B161" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6252,7 +6251,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B162" s="4" t="n">
+      <c r="B162" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6285,7 +6284,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B163" s="4" t="n">
+      <c r="B163" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -6338,7 +6337,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="4" t="n">
+      <c r="B164" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6371,7 +6370,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="4" t="n">
+      <c r="B165" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6404,7 +6403,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="4" t="n">
+      <c r="B166" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6437,7 +6436,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="4" t="n">
+      <c r="B167" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6470,7 +6469,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="4" t="n">
+      <c r="B168" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6503,7 +6502,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="4" t="n">
+      <c r="B169" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6536,7 +6535,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B170" s="4" t="n">
+      <c r="B170" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6569,7 +6568,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B171" s="4" t="n">
+      <c r="B171" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6602,7 +6601,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B172" s="4" t="n">
+      <c r="B172" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6635,7 +6634,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B173" s="4" t="n">
+      <c r="B173" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6668,7 +6667,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B174" s="4" t="n">
+      <c r="B174" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -6721,7 +6720,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="4" t="n">
+      <c r="B175" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -6754,7 +6753,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="4" t="n">
+      <c r="B176" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -6787,7 +6786,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="4" t="n">
+      <c r="B177" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -6820,7 +6819,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="4" t="n">
+      <c r="B178" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -6853,7 +6852,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="4" t="n">
+      <c r="B179" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -6886,7 +6885,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="4" t="n">
+      <c r="B180" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -6919,7 +6918,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="4" t="n">
+      <c r="B181" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -6952,7 +6951,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="4" t="n">
+      <c r="B182" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -6985,7 +6984,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B183" s="4" t="n">
+      <c r="B183" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7018,7 +7017,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B184" s="4" t="n">
+      <c r="B184" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7051,7 +7050,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B185" s="4" t="n">
+      <c r="B185" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -7104,7 +7103,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B186" s="4" t="n">
+      <c r="B186" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7137,7 +7136,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B187" s="4" t="n">
+      <c r="B187" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7170,7 +7169,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B188" s="4" t="n">
+      <c r="B188" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7203,7 +7202,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B189" s="4" t="n">
+      <c r="B189" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7236,7 +7235,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="4" t="n">
+      <c r="B190" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7269,7 +7268,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="4" t="n">
+      <c r="B191" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7302,7 +7301,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="4" t="n">
+      <c r="B192" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7335,7 +7334,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B193" s="4" t="n">
+      <c r="B193" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7368,7 +7367,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B194" s="4" t="n">
+      <c r="B194" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7401,7 +7400,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B195" s="4" t="n">
+      <c r="B195" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7434,7 +7433,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B196" s="4" t="n">
+      <c r="B196" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -7487,7 +7486,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B197" s="4" t="n">
+      <c r="B197" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7520,7 +7519,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B198" s="4" t="n">
+      <c r="B198" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7553,7 +7552,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B199" s="4" t="n">
+      <c r="B199" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7586,7 +7585,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B200" s="4" t="n">
+      <c r="B200" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7619,7 +7618,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B201" s="4" t="n">
+      <c r="B201" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7652,7 +7651,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B202" s="4" t="n">
+      <c r="B202" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -7685,7 +7684,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B203" s="4" t="n">
+      <c r="B203" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -7718,7 +7717,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B204" s="4" t="n">
+      <c r="B204" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -7751,7 +7750,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B205" s="4" t="n">
+      <c r="B205" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -7784,7 +7783,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B206" s="4" t="n">
+      <c r="B206" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -7817,7 +7816,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B207" s="4" t="n">
+      <c r="B207" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C207" t="inlineStr">
@@ -7870,7 +7869,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B208" s="4" t="n">
+      <c r="B208" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -7903,7 +7902,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B209" s="4" t="n">
+      <c r="B209" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -7936,7 +7935,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B210" s="4" t="n">
+      <c r="B210" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -7969,7 +7968,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B211" s="4" t="n">
+      <c r="B211" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8002,7 +8001,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B212" s="4" t="n">
+      <c r="B212" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8035,7 +8034,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B213" s="4" t="n">
+      <c r="B213" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8068,7 +8067,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B214" s="4" t="n">
+      <c r="B214" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8101,7 +8100,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B215" s="4" t="n">
+      <c r="B215" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8134,7 +8133,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B216" s="4" t="n">
+      <c r="B216" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8167,7 +8166,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B217" s="4" t="n">
+      <c r="B217" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8200,7 +8199,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B218" s="4" t="n">
+      <c r="B218" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C218" t="inlineStr">
@@ -8253,7 +8252,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B219" s="4" t="n">
+      <c r="B219" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8286,7 +8285,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B220" s="4" t="n">
+      <c r="B220" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8319,7 +8318,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B221" s="4" t="n">
+      <c r="B221" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8352,7 +8351,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B222" s="4" t="n">
+      <c r="B222" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8385,7 +8384,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B223" s="4" t="n">
+      <c r="B223" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8418,7 +8417,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B224" s="4" t="n">
+      <c r="B224" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8451,7 +8450,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B225" s="4" t="n">
+      <c r="B225" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8484,7 +8483,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B226" s="4" t="n">
+      <c r="B226" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8517,7 +8516,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B227" s="4" t="n">
+      <c r="B227" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -8550,7 +8549,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B228" s="4" t="n">
+      <c r="B228" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -8583,7 +8582,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B229" s="4" t="n">
+      <c r="B229" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -8636,7 +8635,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B230" s="4" t="n">
+      <c r="B230" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -8669,7 +8668,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B231" s="4" t="n">
+      <c r="B231" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -8702,7 +8701,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B232" s="4" t="n">
+      <c r="B232" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -8735,7 +8734,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B233" s="4" t="n">
+      <c r="B233" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -8768,7 +8767,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B234" s="4" t="n">
+      <c r="B234" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -8801,7 +8800,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B235" s="4" t="n">
+      <c r="B235" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -8834,7 +8833,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B236" s="4" t="n">
+      <c r="B236" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -8867,7 +8866,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B237" s="4" t="n">
+      <c r="B237" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -8900,7 +8899,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B238" s="4" t="n">
+      <c r="B238" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -8933,7 +8932,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B239" s="4" t="n">
+      <c r="B239" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -8966,7 +8965,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B240" s="4" t="n">
+      <c r="B240" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -9019,7 +9018,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B241" s="4" t="n">
+      <c r="B241" s="3" t="n">
         <v>43230</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9052,7 +9051,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B242" s="4" t="n">
+      <c r="B242" s="3" t="n">
         <v>43252</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9085,7 +9084,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B243" s="4" t="n">
+      <c r="B243" s="3" t="n">
         <v>43270</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9118,7 +9117,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B244" s="4" t="n">
+      <c r="B244" s="3" t="n">
         <v>43284</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9151,7 +9150,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B245" s="4" t="n">
+      <c r="B245" s="3" t="n">
         <v>43297</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9184,7 +9183,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B246" s="4" t="n">
+      <c r="B246" s="3" t="n">
         <v>43320</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9217,7 +9216,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B247" s="4" t="n">
+      <c r="B247" s="3" t="n">
         <v>43333</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9250,7 +9249,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B248" s="4" t="n">
+      <c r="B248" s="3" t="n">
         <v>43353</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9283,7 +9282,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B249" s="4" t="n">
+      <c r="B249" s="3" t="n">
         <v>43403</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9316,7 +9315,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B250" s="4" t="n">
+      <c r="B250" s="3" t="n">
         <v>43431</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9349,7 +9348,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B251" s="4" t="n">
+      <c r="B251" s="3" t="n">
         <v>43468</v>
       </c>
       <c r="C251" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
+++ b/Tests/Validation/Wheat/data/FAR SAC W18-01.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvConqueror</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -802,7 +803,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -835,7 +836,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -868,7 +869,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -901,7 +902,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -934,7 +935,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -967,7 +968,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1000,7 +1001,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvManning</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -1053,7 +1054,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1086,7 +1087,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1119,7 +1120,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1152,7 +1153,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1185,7 +1186,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1218,7 +1219,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1251,7 +1252,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAGTW0002</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C22" t="inlineStr">
@@ -1304,7 +1305,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1337,7 +1338,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1370,7 +1371,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1403,7 +1404,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1436,7 +1437,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1469,7 +1470,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1502,7 +1503,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBennett</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C29" t="inlineStr">
@@ -1555,7 +1556,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1588,7 +1589,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1621,7 +1622,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -1654,7 +1655,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1687,7 +1688,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1720,7 +1721,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1753,7 +1754,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvTrojan</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C36" t="inlineStr">
@@ -1806,7 +1807,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1839,7 +1840,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1872,7 +1873,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1905,7 +1906,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1938,7 +1939,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1971,7 +1972,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2004,7 +2005,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C43" t="inlineStr">
@@ -2057,7 +2058,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2090,7 +2091,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2123,7 +2124,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2156,7 +2157,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2189,7 +2190,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -2222,7 +2223,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -2255,7 +2256,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvAnapurna</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C50" t="inlineStr">
@@ -2308,7 +2309,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2341,7 +2342,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2374,7 +2375,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2407,7 +2408,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2440,7 +2441,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2473,7 +2474,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -2506,7 +2507,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvBeaufort</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2559,7 +2560,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2592,7 +2593,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2625,7 +2626,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2658,7 +2659,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2691,7 +2692,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2724,7 +2725,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2757,7 +2758,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvCalabro</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2810,7 +2811,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -2843,7 +2844,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -2876,7 +2877,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -2909,7 +2910,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -2942,7 +2943,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C69" t="inlineStr"/>
@@ -2975,7 +2976,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -3008,7 +3009,7 @@
           <t>FAR SAC W18-01MgmtHigh InputCvPascal</t>
         </is>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C71" t="inlineStr">
@@ -3061,7 +3062,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -3094,7 +3095,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -3127,7 +3128,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -3160,7 +3161,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B75" s="3" t="n">
+      <c r="B75" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -3193,7 +3194,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B76" s="3" t="n">
+      <c r="B76" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -3226,7 +3227,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B77" s="3" t="n">
+      <c r="B77" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -3259,7 +3260,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvCalabro</t>
         </is>
       </c>
-      <c r="B78" s="3" t="n">
+      <c r="B78" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C78" t="inlineStr">
@@ -3312,7 +3313,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B79" s="3" t="n">
+      <c r="B79" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -3345,7 +3346,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B80" s="3" t="n">
+      <c r="B80" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -3378,7 +3379,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B81" s="3" t="n">
+      <c r="B81" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -3411,7 +3412,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B82" s="3" t="n">
+      <c r="B82" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -3444,7 +3445,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B83" s="3" t="n">
+      <c r="B83" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -3477,7 +3478,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B84" s="3" t="n">
+      <c r="B84" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -3510,7 +3511,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAGTW0002</t>
         </is>
       </c>
-      <c r="B85" s="3" t="n">
+      <c r="B85" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C85" t="inlineStr">
@@ -3563,7 +3564,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B86" s="3" t="n">
+      <c r="B86" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -3596,7 +3597,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B87" s="3" t="n">
+      <c r="B87" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -3629,7 +3630,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B88" s="3" t="n">
+      <c r="B88" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -3662,7 +3663,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B89" s="3" t="n">
+      <c r="B89" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -3695,7 +3696,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B90" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -3728,7 +3729,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B91" s="3" t="n">
+      <c r="B91" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -3761,7 +3762,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvManning</t>
         </is>
       </c>
-      <c r="B92" s="3" t="n">
+      <c r="B92" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C92" t="inlineStr">
@@ -3814,7 +3815,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B93" s="3" t="n">
+      <c r="B93" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -3847,7 +3848,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B94" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -3880,7 +3881,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B95" s="3" t="n">
+      <c r="B95" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -3913,7 +3914,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B96" s="3" t="n">
+      <c r="B96" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -3946,7 +3947,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B97" s="3" t="n">
+      <c r="B97" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -3979,7 +3980,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B98" s="3" t="n">
+      <c r="B98" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -4012,7 +4013,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBennett</t>
         </is>
       </c>
-      <c r="B99" s="3" t="n">
+      <c r="B99" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C99" t="inlineStr">
@@ -4065,7 +4066,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B100" s="3" t="n">
+      <c r="B100" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -4098,7 +4099,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B101" s="3" t="n">
+      <c r="B101" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C101" t="inlineStr"/>
@@ -4131,7 +4132,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B102" s="3" t="n">
+      <c r="B102" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C102" t="inlineStr"/>
@@ -4164,7 +4165,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B103" s="3" t="n">
+      <c r="B103" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -4197,7 +4198,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B104" s="3" t="n">
+      <c r="B104" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -4230,7 +4231,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B105" s="3" t="n">
+      <c r="B105" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -4263,7 +4264,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvPascal</t>
         </is>
       </c>
-      <c r="B106" s="3" t="n">
+      <c r="B106" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C106" t="inlineStr">
@@ -4316,7 +4317,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B107" s="3" t="n">
+      <c r="B107" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -4349,7 +4350,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B108" s="3" t="n">
+      <c r="B108" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -4382,7 +4383,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B109" s="3" t="n">
+      <c r="B109" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -4415,7 +4416,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B110" s="3" t="n">
+      <c r="B110" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4448,7 +4449,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B111" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4481,7 +4482,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B112" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4514,7 +4515,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAccroc</t>
         </is>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B113" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C113" t="inlineStr">
@@ -4567,7 +4568,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B114" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -4600,7 +4601,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B115" s="3" t="n">
+      <c r="B115" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -4633,7 +4634,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B116" s="3" t="n">
+      <c r="B116" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -4666,7 +4667,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B117" s="3" t="n">
+      <c r="B117" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -4699,7 +4700,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B118" s="3" t="n">
+      <c r="B118" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -4732,7 +4733,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B119" s="3" t="n">
+      <c r="B119" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -4765,7 +4766,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvAnapurna</t>
         </is>
       </c>
-      <c r="B120" s="3" t="n">
+      <c r="B120" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C120" t="inlineStr">
@@ -4818,7 +4819,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B121" s="3" t="n">
+      <c r="B121" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -4851,7 +4852,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B122" s="3" t="n">
+      <c r="B122" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -4884,7 +4885,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B123" s="3" t="n">
+      <c r="B123" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -4917,7 +4918,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B124" s="3" t="n">
+      <c r="B124" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -4950,7 +4951,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B125" s="3" t="n">
+      <c r="B125" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -4983,7 +4984,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B126" s="3" t="n">
+      <c r="B126" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -5016,7 +5017,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvBeaufort</t>
         </is>
       </c>
-      <c r="B127" s="3" t="n">
+      <c r="B127" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C127" t="inlineStr">
@@ -5069,7 +5070,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B128" s="3" t="n">
+      <c r="B128" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -5102,7 +5103,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B129" s="3" t="n">
+      <c r="B129" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -5135,7 +5136,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B130" s="3" t="n">
+      <c r="B130" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -5168,7 +5169,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B131" s="3" t="n">
+      <c r="B131" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -5201,7 +5202,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B132" s="3" t="n">
+      <c r="B132" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -5234,7 +5235,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B133" s="3" t="n">
+      <c r="B133" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -5267,7 +5268,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvConqueror</t>
         </is>
       </c>
-      <c r="B134" s="3" t="n">
+      <c r="B134" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C134" t="inlineStr">
@@ -5320,7 +5321,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B135" s="3" t="n">
+      <c r="B135" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -5353,7 +5354,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B136" s="3" t="n">
+      <c r="B136" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -5386,7 +5387,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B137" s="3" t="n">
+      <c r="B137" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -5419,7 +5420,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B138" s="3" t="n">
+      <c r="B138" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -5452,7 +5453,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B139" s="3" t="n">
+      <c r="B139" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -5485,7 +5486,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B140" s="3" t="n">
+      <c r="B140" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -5518,7 +5519,7 @@
           <t>FAR SAC W18-01MgmtGrazedCvTrojan</t>
         </is>
       </c>
-      <c r="B141" s="3" t="n">
+      <c r="B141" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C141" t="inlineStr">
@@ -5571,7 +5572,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B142" s="3" t="n">
+      <c r="B142" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -5604,7 +5605,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B143" s="3" t="n">
+      <c r="B143" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -5637,7 +5638,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B144" s="3" t="n">
+      <c r="B144" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -5670,7 +5671,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B145" s="3" t="n">
+      <c r="B145" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -5703,7 +5704,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B146" s="3" t="n">
+      <c r="B146" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -5736,7 +5737,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B147" s="3" t="n">
+      <c r="B147" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -5769,7 +5770,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B148" s="3" t="n">
+      <c r="B148" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -5802,7 +5803,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B149" s="3" t="n">
+      <c r="B149" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -5835,7 +5836,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B150" s="3" t="n">
+      <c r="B150" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -5868,7 +5869,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B151" s="3" t="n">
+      <c r="B151" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -5901,7 +5902,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAGTW0002</t>
         </is>
       </c>
-      <c r="B152" s="3" t="n">
+      <c r="B152" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C152" t="inlineStr">
@@ -5954,7 +5955,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B153" s="3" t="n">
+      <c r="B153" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -5987,7 +5988,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B154" s="3" t="n">
+      <c r="B154" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -6020,7 +6021,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B155" s="3" t="n">
+      <c r="B155" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -6053,7 +6054,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B156" s="3" t="n">
+      <c r="B156" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -6086,7 +6087,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B157" s="3" t="n">
+      <c r="B157" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -6119,7 +6120,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B158" s="3" t="n">
+      <c r="B158" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -6152,7 +6153,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B159" s="3" t="n">
+      <c r="B159" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -6185,7 +6186,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B160" s="3" t="n">
+      <c r="B160" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -6218,7 +6219,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B161" s="3" t="n">
+      <c r="B161" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -6251,7 +6252,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B162" s="3" t="n">
+      <c r="B162" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -6284,7 +6285,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAccroc</t>
         </is>
       </c>
-      <c r="B163" s="3" t="n">
+      <c r="B163" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C163" t="inlineStr">
@@ -6337,7 +6338,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B164" s="3" t="n">
+      <c r="B164" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -6370,7 +6371,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B165" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -6403,7 +6404,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B166" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -6436,7 +6437,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B167" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -6469,7 +6470,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B168" s="3" t="n">
+      <c r="B168" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -6502,7 +6503,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B169" s="3" t="n">
+      <c r="B169" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -6535,7 +6536,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B170" s="3" t="n">
+      <c r="B170" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -6568,7 +6569,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B171" s="3" t="n">
+      <c r="B171" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -6601,7 +6602,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B172" s="3" t="n">
+      <c r="B172" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -6634,7 +6635,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B173" s="3" t="n">
+      <c r="B173" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -6667,7 +6668,7 @@
           <t>FAR SAC W18-01MgmtStandardCvTrojan</t>
         </is>
       </c>
-      <c r="B174" s="3" t="n">
+      <c r="B174" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C174" t="inlineStr">
@@ -6720,7 +6721,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B175" s="3" t="n">
+      <c r="B175" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -6753,7 +6754,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B176" s="3" t="n">
+      <c r="B176" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C176" t="inlineStr"/>
@@ -6786,7 +6787,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B177" s="3" t="n">
+      <c r="B177" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -6819,7 +6820,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B178" s="3" t="n">
+      <c r="B178" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C178" t="inlineStr"/>
@@ -6852,7 +6853,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B179" s="3" t="n">
+      <c r="B179" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -6885,7 +6886,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B180" s="3" t="n">
+      <c r="B180" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C180" t="inlineStr"/>
@@ -6918,7 +6919,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B181" s="3" t="n">
+      <c r="B181" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -6951,7 +6952,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B182" s="3" t="n">
+      <c r="B182" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C182" t="inlineStr"/>
@@ -6984,7 +6985,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B183" s="3" t="n">
+      <c r="B183" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -7017,7 +7018,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B184" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C184" t="inlineStr"/>
@@ -7050,7 +7051,7 @@
           <t>FAR SAC W18-01MgmtStandardCvCalabro</t>
         </is>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B185" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C185" t="inlineStr">
@@ -7103,7 +7104,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B186" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -7136,7 +7137,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B187" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -7169,7 +7170,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B188" s="3" t="n">
+      <c r="B188" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C188" t="inlineStr"/>
@@ -7202,7 +7203,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B189" s="3" t="n">
+      <c r="B189" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -7235,7 +7236,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B190" s="3" t="n">
+      <c r="B190" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -7268,7 +7269,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B191" s="3" t="n">
+      <c r="B191" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -7301,7 +7302,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B192" s="3" t="n">
+      <c r="B192" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C192" t="inlineStr"/>
@@ -7334,7 +7335,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B193" s="3" t="n">
+      <c r="B193" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -7367,7 +7368,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B194" s="3" t="n">
+      <c r="B194" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -7400,7 +7401,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B195" s="3" t="n">
+      <c r="B195" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -7433,7 +7434,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBeaufort</t>
         </is>
       </c>
-      <c r="B196" s="3" t="n">
+      <c r="B196" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C196" t="inlineStr">
@@ -7486,7 +7487,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B197" s="3" t="n">
+      <c r="B197" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -7519,7 +7520,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B198" s="3" t="n">
+      <c r="B198" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C198" t="inlineStr"/>
@@ -7552,7 +7553,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B199" s="3" t="n">
+      <c r="B199" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -7585,7 +7586,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B200" s="3" t="n">
+      <c r="B200" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -7618,7 +7619,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B201" s="3" t="n">
+      <c r="B201" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -7651,7 +7652,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B202" s="3" t="n">
+      <c r="B202" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -7684,7 +7685,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B203" s="3" t="n">
+      <c r="B203" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -7717,7 +7718,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B204" s="3" t="n">
+      <c r="B204" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -7750,7 +7751,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B205" s="3" t="n">
+      <c r="B205" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -7783,7 +7784,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B206" s="3" t="n">
+      <c r="B206" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -7816,7 +7817,7 @@
           <t>FAR SAC W18-01MgmtStandardCvManning</t>
         </is>
       </c>
-      <c r="B207" s="3" t="n">
+      <c r="B207" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C207" t="inlineStr">
@@ -7869,7 +7870,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B208" s="3" t="n">
+      <c r="B208" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -7902,7 +7903,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B209" s="3" t="n">
+      <c r="B209" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -7935,7 +7936,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B210" s="3" t="n">
+      <c r="B210" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -7968,7 +7969,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B211" s="3" t="n">
+      <c r="B211" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -8001,7 +8002,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B212" s="3" t="n">
+      <c r="B212" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -8034,7 +8035,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B213" s="3" t="n">
+      <c r="B213" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -8067,7 +8068,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B214" s="3" t="n">
+      <c r="B214" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -8100,7 +8101,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B215" s="3" t="n">
+      <c r="B215" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -8133,7 +8134,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B216" s="3" t="n">
+      <c r="B216" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -8166,7 +8167,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B217" s="3" t="n">
+      <c r="B217" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -8199,7 +8200,7 @@
           <t>FAR SAC W18-01MgmtStandardCvAnapurna</t>
         </is>
       </c>
-      <c r="B218" s="3" t="n">
+      <c r="B218" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C218" t="inlineStr">
@@ -8252,7 +8253,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B219" s="3" t="n">
+      <c r="B219" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -8285,7 +8286,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B220" s="3" t="n">
+      <c r="B220" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -8318,7 +8319,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B221" s="3" t="n">
+      <c r="B221" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C221" t="inlineStr"/>
@@ -8351,7 +8352,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B222" s="3" t="n">
+      <c r="B222" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -8384,7 +8385,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B223" s="3" t="n">
+      <c r="B223" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C223" t="inlineStr"/>
@@ -8417,7 +8418,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B224" s="3" t="n">
+      <c r="B224" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -8450,7 +8451,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B225" s="3" t="n">
+      <c r="B225" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -8483,7 +8484,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B226" s="3" t="n">
+      <c r="B226" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C226" t="inlineStr"/>
@@ -8516,7 +8517,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B227" s="3" t="n">
+      <c r="B227" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -8549,7 +8550,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B228" s="3" t="n">
+      <c r="B228" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -8582,7 +8583,7 @@
           <t>FAR SAC W18-01MgmtStandardCvBennett</t>
         </is>
       </c>
-      <c r="B229" s="3" t="n">
+      <c r="B229" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C229" t="inlineStr">
@@ -8635,7 +8636,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B230" s="3" t="n">
+      <c r="B230" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -8668,7 +8669,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B231" s="3" t="n">
+      <c r="B231" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -8701,7 +8702,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B232" s="3" t="n">
+      <c r="B232" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -8734,7 +8735,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B233" s="3" t="n">
+      <c r="B233" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -8767,7 +8768,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B234" s="3" t="n">
+      <c r="B234" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -8800,7 +8801,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B235" s="3" t="n">
+      <c r="B235" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -8833,7 +8834,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B236" s="3" t="n">
+      <c r="B236" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -8866,7 +8867,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B237" s="3" t="n">
+      <c r="B237" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -8899,7 +8900,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B238" s="3" t="n">
+      <c r="B238" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -8932,7 +8933,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B239" s="3" t="n">
+      <c r="B239" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -8965,7 +8966,7 @@
           <t>FAR SAC W18-01MgmtStandardCvConqueror</t>
         </is>
       </c>
-      <c r="B240" s="3" t="n">
+      <c r="B240" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C240" t="inlineStr">
@@ -9018,7 +9019,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B241" s="3" t="n">
+      <c r="B241" s="4" t="n">
         <v>43230</v>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -9051,7 +9052,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B242" s="3" t="n">
+      <c r="B242" s="4" t="n">
         <v>43252</v>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -9084,7 +9085,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B243" s="3" t="n">
+      <c r="B243" s="4" t="n">
         <v>43270</v>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -9117,7 +9118,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B244" s="3" t="n">
+      <c r="B244" s="4" t="n">
         <v>43284</v>
       </c>
       <c r="C244" t="inlineStr"/>
@@ -9150,7 +9151,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B245" s="3" t="n">
+      <c r="B245" s="4" t="n">
         <v>43297</v>
       </c>
       <c r="C245" t="inlineStr"/>
@@ -9183,7 +9184,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B246" s="3" t="n">
+      <c r="B246" s="4" t="n">
         <v>43320</v>
       </c>
       <c r="C246" t="inlineStr"/>
@@ -9216,7 +9217,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B247" s="3" t="n">
+      <c r="B247" s="4" t="n">
         <v>43333</v>
       </c>
       <c r="C247" t="inlineStr"/>
@@ -9249,7 +9250,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B248" s="3" t="n">
+      <c r="B248" s="4" t="n">
         <v>43353</v>
       </c>
       <c r="C248" t="inlineStr"/>
@@ -9282,7 +9283,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B249" s="3" t="n">
+      <c r="B249" s="4" t="n">
         <v>43403</v>
       </c>
       <c r="C249" t="inlineStr"/>
@@ -9315,7 +9316,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B250" s="3" t="n">
+      <c r="B250" s="4" t="n">
         <v>43431</v>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -9348,7 +9349,7 @@
           <t>FAR SAC W18-01MgmtStandardCvPascal</t>
         </is>
       </c>
-      <c r="B251" s="3" t="n">
+      <c r="B251" s="4" t="n">
         <v>43468</v>
       </c>
       <c r="C251" t="inlineStr">
